--- a/biology/Médecine/Galvanomètre_à_cordes/Galvanomètre_à_cordes.xlsx
+++ b/biology/Médecine/Galvanomètre_à_cordes/Galvanomètre_à_cordes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Galvanom%C3%A8tre_%C3%A0_cordes</t>
+          <t>Galvanomètre_à_cordes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le galvanomètre à cordes est l'un des premiers instruments à avoir été capable de détecter et d'enregistrer les faibles courants électriques produits par le cœur humain. C'est l'équivalent du premier électrocardiographe.
-Willem Einthoven inventa le galvanomètre à cordes au début du XXe siècle. Le premier électrocardiogramme humain fut réalisé en 1887, mais ce n'est pas avant 1901 qu'on put obtenir des résultats avec un galvanomètre à cordes[1]. Einthoven reçut le Prix Nobel de physiologie ou médecine en 1924 pour l'ensemble de son travail[2].
+Willem Einthoven inventa le galvanomètre à cordes au début du XXe siècle. Le premier électrocardiogramme humain fut réalisé en 1887, mais ce n'est pas avant 1901 qu'on put obtenir des résultats avec un galvanomètre à cordes. Einthoven reçut le Prix Nobel de physiologie ou médecine en 1924 pour l'ensemble de son travail.
 </t>
         </is>
       </c>
